--- a/biology/Médecine/Toshio_Hirano/Toshio_Hirano.xlsx
+++ b/biology/Médecine/Toshio_Hirano/Toshio_Hirano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toshio Hirano (平野 俊夫, Hirano Toshio?, né le 17 avril 1947 à Osaka au Japon) est un immunologiste et universitaire, surtout connu pour sa découverte de l'interleukine-6[1],[2]. Depuis le mois d'août 2011, il est le 17e président de l'université d'Osaka.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toshio Hirano (平野 俊夫, Hirano Toshio?, né le 17 avril 1947 à Osaka au Japon) est un immunologiste et universitaire, surtout connu pour sa découverte de l'interleukine-6,. Depuis le mois d'août 2011, il est le 17e président de l'université d'Osaka.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1972 - diplômé de l'école de médecine, université d'Osaka[2]
-1980 - professeur adjoint à l'école de médecine, université de Kumamoto[2]
-1984 - professeur adjoint à l'Institut de biologie moléculaire et cellulaire, université d'Osaka[2]
-1989 - professeur à la même université[2]
-2004 - doyen de la Graduate School of Frontier Biosciences, université d'Osaka[2]
-2008 - doyen de la Graduate School of Medicine, université d'Osaka[2]
-Août 2011 - 17e président de l'université d'Osaka[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1972 - diplômé de l'école de médecine, université d'Osaka
+1980 - professeur adjoint à l'école de médecine, université de Kumamoto
+1984 - professeur adjoint à l'Institut de biologie moléculaire et cellulaire, université d'Osaka
+1989 - professeur à la même université
+2004 - doyen de la Graduate School of Frontier Biosciences, université d'Osaka
+2008 - doyen de la Graduate School of Medicine, université d'Osaka
+Août 2011 - 17e président de l'université d'Osaka</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Honneurs et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Erwin von Balz (Japon), 1986
 Prix CIBA-GEIGY rhumatisme  (Japon), 1990
